--- a/data/稼働工程表_test.xlsx
+++ b/data/稼働工程表_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe144674\WorkSpace\PJ493_DataAssim_CatalyticReactor\codes_PJ493\05_gas_adsorption_3dim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF851CA2-7846-410F-B654-DDD7B615D059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAC9403-9909-488E-BDF7-D693281828DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{34BEBECB-191F-4091-944B-D286D519E65A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -218,6 +218,10 @@
     <rPh sb="0" eb="4">
       <t>ジカンケイカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間経過_12_s</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -647,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F191AAB7-A95C-43B8-9A7F-7EA746E54CDA}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -822,6 +826,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -833,7 +857,7 @@
           <x14:formula1>
             <xm:f>稼働モード一覧!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:D20</xm:sqref>
+          <xm:sqref>B2:D8 B10:D20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data/稼働工程表_test.xlsx
+++ b/data/稼働工程表_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe144674\WorkSpace\PJ493_DataAssim_CatalyticReactor\codes_PJ493\05_gas_adsorption_3dim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAC9403-9909-488E-BDF7-D693281828DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E5154F-0155-46FB-8A2C-58A7EAC53CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{34BEBECB-191F-4091-944B-D286D519E65A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -222,6 +222,76 @@
   </si>
   <si>
     <t>時間経過_12_s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧力到達_塔2_0.1_MPaA</t>
+    <rPh sb="0" eb="4">
+      <t>アツリョクトウタツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温度上昇_塔1_50/時間経過_3_min</t>
+    <rPh sb="0" eb="4">
+      <t>オンドジョウショウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ジカンケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間経過_15_s</t>
+    <rPh sb="0" eb="4">
+      <t>ジカンケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧力到達_塔3_0.1_MPaA</t>
+    <rPh sb="0" eb="4">
+      <t>アツリョクトウタツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温度上昇_塔2_50/時間経過_3_min</t>
+    <rPh sb="0" eb="4">
+      <t>オンドジョウショウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ジカンケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温度上昇_塔3_53/時間経過_3_min</t>
+    <rPh sb="0" eb="4">
+      <t>オンドジョウショウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ジカンケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手動終了時刻</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -651,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F191AAB7-A95C-43B8-9A7F-7EA746E54CDA}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -663,10 +733,10 @@
     <col min="3" max="3" width="18.08203125" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="29.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.4140625" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -683,10 +753,13 @@
         <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -703,10 +776,13 @@
         <v>20</v>
       </c>
       <c r="F2">
+        <v>0.4</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -723,10 +799,13 @@
         <v>17</v>
       </c>
       <c r="F3">
+        <v>1.63</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -743,10 +822,13 @@
         <v>21</v>
       </c>
       <c r="F4">
+        <v>1.77</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -763,10 +845,13 @@
         <v>18</v>
       </c>
       <c r="F5">
+        <v>2.13</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -783,10 +868,13 @@
         <v>21</v>
       </c>
       <c r="F6">
+        <v>2.27</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -803,10 +891,13 @@
         <v>19</v>
       </c>
       <c r="F7">
+        <v>2.73</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -823,10 +914,13 @@
         <v>22</v>
       </c>
       <c r="F8">
+        <v>3.9</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -843,6 +937,239 @@
         <v>23</v>
       </c>
       <c r="F9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>5.37</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>14.13</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>14.4</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>14.9</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>25.07</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>25.33</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>25.83</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>26.93</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>35.6</v>
+      </c>
+      <c r="G19">
         <v>1</v>
       </c>
     </row>
@@ -857,7 +1184,7 @@
           <x14:formula1>
             <xm:f>稼働モード一覧!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:D8 B10:D20</xm:sqref>
+          <xm:sqref>B20:D20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
